--- a/public/template/template-users.xlsx
+++ b/public/template/template-users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
@@ -46,10 +46,16 @@
     <t>邮箱</t>
   </si>
   <si>
+    <t>姓名、账号、密码必填项</t>
+  </si>
+  <si>
     <t>王硕</t>
   </si>
   <si>
     <t>spacegt.master@gmail.com</t>
+  </si>
+  <si>
+    <t>密码长度保持在8到20位之间,（字母/数字/符号的任意组合）至少包括两种</t>
   </si>
 </sst>
 </file>
@@ -980,20 +986,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="12.8181818181818"/>
-    <col min="4" max="4" width="12.8181818181818"/>
+    <col min="1" max="3" width="12.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818" customWidth="1"/>
     <col min="5" max="5" width="27.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="74.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +1016,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>202500001</v>
@@ -1024,7 +1034,10 @@
         <v>18222222222</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/template-users.xlsx
+++ b/public/template/template-users.xlsx
@@ -29,21 +29,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>姓名</t>
+    <t>*姓名</t>
   </si>
   <si>
-    <t>账号</t>
+    <t>*账号</t>
   </si>
   <si>
-    <t>密码</t>
+    <t>*密码</t>
   </si>
   <si>
     <t>手机号</t>
   </si>
   <si>
     <t>邮箱</t>
+  </si>
+  <si>
+    <t>组织代码</t>
   </si>
   <si>
     <t>姓名、账号、密码必填项</t>
@@ -986,21 +989,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="12.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="12.8181818181818" customWidth="1"/>
     <col min="5" max="5" width="27.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="74.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="18.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="74.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,13 +1020,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>202500001</v>
@@ -1034,10 +1041,11 @@
         <v>18222222222</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2"/>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
